--- a/server/key_result_data_export.xlsx
+++ b/server/key_result_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>period</t>
   </si>
@@ -41,31 +41,34 @@
     <t>windowId</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>On Time</t>
-  </si>
-  <si>
-    <t>Punctuality</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Error Solving</t>
-  </si>
-  <si>
-    <t>Error Management</t>
-  </si>
-  <si>
-    <t>attending meetings regularly</t>
-  </si>
-  <si>
-    <t>Meeting Presence</t>
-  </si>
-  <si>
-    <t/>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>met client expectations</t>
+  </si>
+  <si>
+    <t>Client delivery</t>
+  </si>
+  <si>
+    <t>is hygienic</t>
+  </si>
+  <si>
+    <t>Hygiene</t>
+  </si>
+  <si>
+    <t>behaviour</t>
+  </si>
+  <si>
+    <t>good behaviour</t>
+  </si>
+  <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t>Dev and testing</t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,17 +153,17 @@
         <v>9</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="n" s="0">
-        <v>122.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>10.0</v>
+        <v>80.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>11</v>
@@ -169,108 +172,237 @@
         <v>3.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B4" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="0"/>
-      <c r="D4" t="n" s="0">
-        <v>122.0</v>
-      </c>
-      <c r="E4" t="s" s="0">
+      <c r="F4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F4" t="n" s="0">
-        <v>20.0</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>14</v>
-      </c>
       <c r="H4" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>12.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="I4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="n" s="0">
-        <v>121.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>12.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" t="n" s="0">
-        <v>121.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>30.0</v>
+        <v>80.0</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>12.0</v>
-      </c>
+        <v>2468.0</v>
+      </c>
+      <c r="I6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>2468.0</v>
+      </c>
+      <c r="I7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>2468.0</v>
+      </c>
+      <c r="I8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>3690.0</v>
+      </c>
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>3690.0</v>
+      </c>
+      <c r="I10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>3690.0</v>
+      </c>
+      <c r="I11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B7" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F7" s="0"/>
-      <c r="G7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
+      <c r="F12" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/server/key_result_data_export.xlsx
+++ b/server/key_result_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>period</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Development</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -200,7 +203,9 @@
       <c r="H4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="I4" s="0"/>
+      <c r="I4" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -225,7 +230,9 @@
       <c r="H5" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="I5" s="0"/>
+      <c r="I5" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
@@ -248,9 +255,11 @@
         <v>11</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>2468.0</v>
-      </c>
-      <c r="I6" s="0"/>
+        <v>2.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
@@ -267,15 +276,17 @@
         <v>12</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>2468.0</v>
-      </c>
-      <c r="I7" s="0"/>
+        <v>2.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
@@ -298,9 +309,11 @@
         <v>16</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>2468.0</v>
-      </c>
-      <c r="I8" s="0"/>
+        <v>2.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
@@ -311,7 +324,7 @@
       </c>
       <c r="C9" s="0"/>
       <c r="D9" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>10</v>
@@ -323,9 +336,11 @@
         <v>11</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>3690.0</v>
-      </c>
-      <c r="I9" s="0"/>
+        <v>5.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
@@ -336,7 +351,7 @@
       </c>
       <c r="C10" s="0"/>
       <c r="D10" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>12</v>
@@ -348,9 +363,11 @@
         <v>13</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>3690.0</v>
-      </c>
-      <c r="I10" s="0"/>
+        <v>5.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
@@ -361,7 +378,7 @@
       </c>
       <c r="C11" s="0"/>
       <c r="D11" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>15</v>
@@ -373,9 +390,11 @@
         <v>16</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>3690.0</v>
-      </c>
-      <c r="I11" s="0"/>
+        <v>10.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
@@ -403,6 +422,25 @@
       <c r="I12" t="n" s="0">
         <v>1.0</v>
       </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/server/key_result_data_export.xlsx
+++ b/server/key_result_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
   <si>
     <t>period</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Development</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,7 +156,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="0"/>
       <c r="D3" t="n" s="0">
@@ -180,7 +183,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>5.0</v>
@@ -200,14 +203,16 @@
       <c r="H4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="I4" s="0"/>
+      <c r="I4" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" t="n" s="0">
@@ -225,14 +230,16 @@
       <c r="H5" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="I5" s="0"/>
+      <c r="I5" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" t="n" s="0">
@@ -248,16 +255,18 @@
         <v>11</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>2468.0</v>
-      </c>
-      <c r="I6" s="0"/>
+        <v>2.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" s="0"/>
       <c r="D7" t="n" s="0">
@@ -267,22 +276,24 @@
         <v>12</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>2468.0</v>
-      </c>
-      <c r="I7" s="0"/>
+        <v>2.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" s="0"/>
       <c r="D8" t="n" s="0">
@@ -298,20 +309,22 @@
         <v>16</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>2468.0</v>
-      </c>
-      <c r="I8" s="0"/>
+        <v>2.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>10</v>
@@ -323,20 +336,22 @@
         <v>11</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>3690.0</v>
-      </c>
-      <c r="I9" s="0"/>
+        <v>5.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" s="0"/>
       <c r="D10" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>12</v>
@@ -348,20 +363,22 @@
         <v>13</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>3690.0</v>
-      </c>
-      <c r="I10" s="0"/>
+        <v>5.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="C11" s="0"/>
       <c r="D11" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" t="s" s="0">
         <v>15</v>
@@ -373,16 +390,18 @@
         <v>16</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>3690.0</v>
-      </c>
-      <c r="I11" s="0"/>
+        <v>10.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
         <v>9</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C12" s="0"/>
       <c r="D12" t="n" s="0">
@@ -403,6 +422,306 @@
       <c r="I12" t="n" s="0">
         <v>1.0</v>
       </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="C20" s="0"/>
+      <c r="D20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="C21" s="0"/>
+      <c r="D21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="C22" s="0"/>
+      <c r="D22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H22" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="C23" s="0"/>
+      <c r="D23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H23" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="C24" s="0"/>
+      <c r="D24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
